--- a/files/Course_List_2025-2026.xlsx
+++ b/files/Course_List_2025-2026.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29225"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="54" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EF8783E7-C6FE-4FE3-AFAB-99D978A9D61D}"/>
+  <xr:revisionPtr revIDLastSave="87" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0AFBEE67-9E5F-49D1-B2C4-1A99A4A6E27A}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="47">
   <si>
     <t xml:space="preserve">Course List 2025-2026 </t>
   </si>
@@ -51,6 +51,9 @@
     <t>Chinese 1A</t>
   </si>
   <si>
+    <t>Helen Liang</t>
+  </si>
+  <si>
     <t>1:00pm - 2:50pm</t>
   </si>
   <si>
@@ -60,31 +63,44 @@
     <t>Chinese 1B</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Hui Li</t>
+  </si>
+  <si>
     <t>暨南中文第一册 (Starting from Lesson 7)</t>
   </si>
   <si>
-    <t>Chinese 2 &amp; 3 (NC)</t>
-  </si>
-  <si>
-    <t>暨南中文第二册 , 第三册</t>
+    <t>Chinese Beginner (NC)</t>
+  </si>
+  <si>
+    <t>Alina Lyu</t>
+  </si>
+  <si>
+    <t>TBD, Young Chinese or Chinese Made Easy</t>
   </si>
   <si>
     <t>Chinese 2 (C)</t>
   </si>
   <si>
+    <t>Hong Jiang</t>
+  </si>
+  <si>
     <t>暨南中文第二册</t>
   </si>
   <si>
     <t>Chinese Intermediate 3 (NC)</t>
   </si>
   <si>
-    <t>阳阳第五册</t>
+    <t>Yuefeng Lu</t>
+  </si>
+  <si>
+    <t>阳阳第五册 (Young Chinese, Level 5)</t>
   </si>
   <si>
     <t>Chinese 3</t>
   </si>
   <si>
-    <t>9:30am - 11:20am</t>
+    <t>Xiaomei Zhang</t>
   </si>
   <si>
     <t>暨南中文第三册</t>
@@ -93,30 +109,46 @@
     <t>Chinese 4</t>
   </si>
   <si>
+    <t>Emay Ulaney</t>
+  </si>
+  <si>
     <t>暨南中文第四册</t>
   </si>
   <si>
     <t>Chinese 5</t>
   </si>
   <si>
+    <t xml:space="preserve">
+Nancy Ma</t>
+  </si>
+  <si>
     <t>暨南中文第五册</t>
   </si>
   <si>
     <t>Chinese 6</t>
   </si>
   <si>
+    <t>TBD</t>
+  </si>
+  <si>
     <t>暨南中文第六册</t>
   </si>
   <si>
     <t>Chinese 7</t>
   </si>
   <si>
+    <t>Wenli Wang</t>
+  </si>
+  <si>
     <t>暨南中文第七册</t>
   </si>
   <si>
     <t>Chinese 8/AP</t>
   </si>
   <si>
+    <t>Echo Chang</t>
+  </si>
+  <si>
     <t>1:30pm - 3:20pm</t>
   </si>
   <si>
@@ -124,6 +156,9 @@
   </si>
   <si>
     <t>Chess Class</t>
+  </si>
+  <si>
+    <t>Alex Betaneli</t>
   </si>
   <si>
     <t>11:45am - 12:45pm</t>
@@ -145,17 +180,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -174,26 +202,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -223,40 +271,273 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Aptos Narrow"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="1"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF000000"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF000000"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <sz val="12"/>
+        <charset val="1"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF000000"/>
+        <name val="Consolas"/>
+        <charset val="1"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color rgb="FF000000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF000000"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color rgb="FF000000"/>
+        </vertical>
+        <horizontal style="thin">
+          <color rgb="FF000000"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -267,6 +548,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7604F903-5660-44EF-A3C2-B10594E89B47}" name="Table1" displayName="Table1" ref="A2:D17" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4">
+  <autoFilter ref="A2:D17" xr:uid="{7604F903-5660-44EF-A3C2-B10594E89B47}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{EDC9392A-621D-40F7-A4BA-70BD14ABF0BE}" name="Course Title" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{FC9AE691-75C1-4FF7-B2F7-FBD14B2C4204}" name="Teacher ID" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1EB2EFAB-0023-448C-8B2F-AA54E0F306CF}" name="Class Time" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{9D2728E4-5567-4CB0-81B6-6A2E7A4D8CC0}" name="Textbooks" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -589,19 +883,19 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="12.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" style="6" customWidth="1"/>
-    <col min="4" max="4" width="43.42578125" style="6" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="6"/>
+    <col min="1" max="1" width="30.42578125" style="7" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="7" customWidth="1"/>
+    <col min="3" max="3" width="21" style="7" customWidth="1"/>
+    <col min="4" max="4" width="47.42578125" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
+    <row r="1" spans="1:4" s="8" customFormat="1" ht="21.75" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -609,196 +903,223 @@
       <c r="C1" s="9"/>
       <c r="D1" s="9"/>
     </row>
-    <row r="2" spans="1:4" s="8" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:4" s="5" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A4" s="2" t="s">
+      <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="2" t="s">
+    </row>
+    <row r="4" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A5" s="2" t="s">
+      <c r="B4" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A6" s="2" t="s">
+    <row r="5" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="2" t="s">
+      <c r="B5" s="11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A7" s="4" t="s">
+      <c r="C5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="4" t="s">
+    </row>
+    <row r="6" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A8" s="4" t="s">
+      <c r="B6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="2" t="s">
+      <c r="C6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="2" t="s">
+    </row>
+    <row r="7" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A7" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A9" s="4" t="s">
+      <c r="B7" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
+      <c r="C7" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A10" s="4" t="s">
+    <row r="8" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="4" t="s">
+      <c r="B8" s="11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A11" s="4" t="s">
+      <c r="C8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D11" s="4" t="s">
+    </row>
+    <row r="9" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A9" s="2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A12" s="4" t="s">
+      <c r="B9" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D12" s="4" t="s">
+      <c r="C9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A13" s="4" t="s">
+    <row r="10" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A10" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="2" t="s">
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A14" s="4" t="s">
+    <row r="11" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A11" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="5" t="s">
+      <c r="B11" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A15" s="4" t="s">
+      <c r="C11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="3" t="s">
+    </row>
+    <row r="12" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A12" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A16" s="4" t="s">
+      <c r="B12" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="B16" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="1:4" s="1" customFormat="1" ht="21.75" customHeight="1">
-      <c r="A17" s="4" t="s">
+      <c r="C12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
+    </row>
+    <row r="13" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+    </row>
+    <row r="17" spans="1:4" s="4" customFormat="1" ht="21.75" customHeight="1">
+      <c r="A17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:D1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>